--- a/Serial Port Example/GTC-480272TFT43XP 串口例程/串口协议.xlsx
+++ b/Serial Port Example/GTC-480272TFT43XP 串口例程/串口协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyComputer\Documents\WXWork\1688850079148900\Cache\File\2023-10\串口屏\串口屏\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee gt-hmi-bulider\GT-HMI-Builder\Serial Port Example\GTC-480272TFT43XP 串口例程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B62266-27AE-4701-B37F-2CFEFF9D7D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE436F-9215-48B4-80C1-AA2B528A25CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E409E48-859A-4F1B-A999-862D84251CBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E409E48-859A-4F1B-A999-862D84251CBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>HEAD</t>
   </si>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>(A4到G4和)&amp;0xFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧示例 AA 00 02 02 20 20 08 F6    波特率115200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的效果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,6 +168,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>348747</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9BF293-77E6-9F9A-2F1A-8F629C641A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1409701"/>
+          <a:ext cx="3144334" cy="1976438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,20 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE48FB-EAA7-4007-B5E4-DA0B0681295A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -484,7 +541,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,11 +619,27 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>